--- a/tables/cifar10_resnet_3.xlsx
+++ b/tables/cifar10_resnet_3.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,66 +455,66 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr"/>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>BAARD2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>BAARD3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>LID</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>RC</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>magnet</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="1" t="inlineStr"/>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr"/>
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
@@ -531,6 +531,11 @@
           <t>Epsilon</t>
         </is>
       </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy after attack</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -541,22 +546,25 @@
       <c r="B4" s="1" t="n">
         <v>0.031</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D4" t="n">
         <v>32.1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>51.5</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>49.7</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.5</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>4.6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>24</v>
       </c>
     </row>
@@ -565,22 +573,25 @@
       <c r="B5" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>91.2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>92.5</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>46.6</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>15.6</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>6.2</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -589,22 +600,25 @@
       <c r="B6" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C6" t="n">
-        <v>100</v>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>100</v>
       </c>
       <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
         <v>29.1</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>23.7</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>1.5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>99.3</v>
       </c>
     </row>
@@ -613,22 +627,25 @@
       <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>100</v>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>100</v>
       </c>
       <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
         <v>8.200000000000001</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.1</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>1.3</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -637,22 +654,25 @@
       <c r="B8" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C8" t="n">
-        <v>100</v>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>100</v>
       </c>
       <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
         <v>9.9</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>10</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>0.8</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>100</v>
       </c>
     </row>
@@ -665,22 +685,25 @@
       <c r="B9" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C9" t="n">
-        <v>99.2</v>
+      <c r="C9" s="1" t="n">
+        <v>99.09999999999999</v>
       </c>
       <c r="D9" t="n">
         <v>99.2</v>
       </c>
       <c r="E9" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F9" t="n">
         <v>99.59999999999999</v>
-      </c>
-      <c r="F9" t="n">
-        <v>99.09999999999999</v>
       </c>
       <c r="G9" t="n">
         <v>99.09999999999999</v>
       </c>
       <c r="H9" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="I9" t="n">
         <v>99.09999999999999</v>
       </c>
     </row>
@@ -689,22 +712,25 @@
       <c r="B10" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C10" t="n">
-        <v>98</v>
+      <c r="C10" s="1" t="n">
+        <v>97.5</v>
       </c>
       <c r="D10" t="n">
         <v>98</v>
       </c>
       <c r="E10" t="n">
+        <v>98</v>
+      </c>
+      <c r="F10" t="n">
         <v>98.7</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>97.5</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>97.59999999999999</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>97.5</v>
       </c>
     </row>
@@ -713,22 +739,25 @@
       <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="1" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="D11" t="n">
         <v>96.8</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>97</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>97.8</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>95.8</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>96</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>95.8</v>
       </c>
     </row>
@@ -737,22 +766,25 @@
       <c r="B12" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="D12" t="n">
         <v>95.3</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>95.40000000000001</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>94</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>94.40000000000001</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>94</v>
       </c>
     </row>
@@ -761,20 +793,23 @@
       <c r="B13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="1" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="D13" t="n">
         <v>93.09999999999999</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>93.5</v>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
         <v>91.7</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>92</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>91.7</v>
       </c>
     </row>
@@ -783,20 +818,23 @@
       <c r="B14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="1" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="D14" t="n">
         <v>88.5</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>89.90000000000001</v>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
         <v>86.3</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>86.5</v>
       </c>
     </row>
@@ -805,20 +843,23 @@
       <c r="B15" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="1" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="D15" t="n">
         <v>79.10000000000001</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>81.59999999999999</v>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
         <v>76.2</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>76.7</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>76.59999999999999</v>
       </c>
     </row>
@@ -831,22 +872,25 @@
       <c r="B16" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="1" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="D16" t="n">
         <v>54.8</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>63.6</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>73.3</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>46.9</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>48.7</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>49.7</v>
       </c>
     </row>
@@ -855,22 +899,25 @@
       <c r="B17" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" t="n">
         <v>28.9</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>45.6</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>55.40000000000001</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>16.3</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>14.4</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>24.5</v>
       </c>
     </row>
@@ -879,22 +926,25 @@
       <c r="B18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D18" t="n">
         <v>26.6</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>46.7</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>49.4</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>10.6</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>5.600000000000001</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>23.9</v>
       </c>
     </row>
@@ -903,22 +953,25 @@
       <c r="B19" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D19" t="n">
         <v>30.1</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>48.2</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>51.7</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>3.4</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>3.7</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>20.8</v>
       </c>
     </row>
@@ -927,20 +980,23 @@
       <c r="B20" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>32.7</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>48.8</v>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>3.1</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>16.5</v>
       </c>
     </row>
@@ -949,20 +1005,23 @@
       <c r="B21" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
         <v>39.7</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>55.2</v>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>4.3</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>11.7</v>
       </c>
     </row>
@@ -971,20 +1030,23 @@
       <c r="B22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
         <v>50.4</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>61.1</v>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>8.5</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>10.2</v>
       </c>
     </row>
@@ -997,22 +1059,25 @@
       <c r="B23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>19</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>35</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>30.3</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>71.8</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>7.000000000000001</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1021,22 +1086,25 @@
       <c r="B24" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
         <v>18.6</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>35.2</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>32.9</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>20.7</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1045,22 +1113,25 @@
       <c r="B25" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
         <v>19.2</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>36.6</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>51.2</v>
       </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>4.6</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>17.2</v>
       </c>
     </row>
@@ -1073,22 +1144,25 @@
       <c r="B26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D26" t="n">
         <v>23.1</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>38.1</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>49.9</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>17.2</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>4.9</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -1097,22 +1171,25 @@
       <c r="B27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D27" t="n">
         <v>28</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>42.2</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>50.1</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>0.3</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>4.9</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>0.8999999999999999</v>
       </c>
     </row>
@@ -1125,22 +1202,25 @@
       <c r="B28" s="1" t="n">
         <v>1e-06</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="1" t="n">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="D28" t="n">
         <v>94.3</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>94.7</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>56.99999999999999</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>64.7</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>7.5</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>85.7</v>
       </c>
     </row>
@@ -1153,22 +1233,25 @@
       <c r="B29" s="1" t="n">
         <v>0.031</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="1" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D29" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>79.3</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>72</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>60.2</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>61.3</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>60.2</v>
       </c>
     </row>
@@ -1177,22 +1260,25 @@
       <c r="B30" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C30" t="n">
-        <v>100</v>
+      <c r="C30" s="1" t="n">
+        <v>11.4</v>
       </c>
       <c r="D30" t="n">
         <v>100</v>
       </c>
       <c r="E30" t="n">
+        <v>100</v>
+      </c>
+      <c r="F30" t="n">
         <v>55.7</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>35.09999999999999</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>11.4</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>96.2</v>
       </c>
     </row>
@@ -1201,22 +1287,25 @@
       <c r="B31" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C31" t="n">
-        <v>100</v>
+      <c r="C31" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="D31" t="n">
         <v>100</v>
       </c>
       <c r="E31" t="n">
+        <v>100</v>
+      </c>
+      <c r="F31" t="n">
         <v>45.5</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>63.9</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>11</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1225,22 +1314,25 @@
       <c r="B32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C32" t="n">
-        <v>100</v>
+      <c r="C32" s="1" t="n">
+        <v>12.4</v>
       </c>
       <c r="D32" t="n">
         <v>100</v>
       </c>
       <c r="E32" t="n">
+        <v>100</v>
+      </c>
+      <c r="F32" t="n">
         <v>19.3</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>74.5</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>12.4</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1249,22 +1341,25 @@
       <c r="B33" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C33" t="n">
-        <v>100</v>
+      <c r="C33" s="1" t="n">
+        <v>12.4</v>
       </c>
       <c r="D33" t="n">
         <v>100</v>
       </c>
       <c r="E33" t="n">
+        <v>100</v>
+      </c>
+      <c r="F33" t="n">
         <v>19.3</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>63.8</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>12.4</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1277,20 +1372,23 @@
       <c r="B34" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="n">
+      <c r="C34" s="1" t="n">
+        <v>78.10000000000001</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="n">
         <v>98.8</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>78.10000000000001</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>78.5</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>78.10000000000001</v>
       </c>
     </row>
@@ -1299,20 +1397,23 @@
       <c r="B35" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="n">
+      <c r="C35" s="1" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
         <v>94.8</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>96.7</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>93.3</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>93.40000000000001</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>93.3</v>
       </c>
     </row>
@@ -1321,20 +1422,23 @@
       <c r="B36" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="n">
+      <c r="C36" s="1" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
         <v>89</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>78.10000000000001</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>75.3</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>76</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>75.40000000000001</v>
       </c>
     </row>
@@ -1347,20 +1451,23 @@
       <c r="B37" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="n">
+      <c r="C37" s="1" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
         <v>98.7</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>99.59999999999999</v>
-      </c>
-      <c r="F37" t="n">
-        <v>98.5</v>
       </c>
       <c r="G37" t="n">
         <v>98.5</v>
       </c>
       <c r="H37" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="I37" t="n">
         <v>98.5</v>
       </c>
     </row>
@@ -1369,20 +1476,23 @@
       <c r="B38" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="n">
+      <c r="C38" s="1" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
         <v>97.2</v>
       </c>
-      <c r="E38" t="n">
-        <v>100</v>
-      </c>
       <c r="F38" t="n">
-        <v>93.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G38" t="n">
         <v>93.90000000000001</v>
       </c>
       <c r="H38" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="I38" t="n">
         <v>94</v>
       </c>
     </row>
@@ -1391,20 +1501,23 @@
       <c r="B39" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="n">
+      <c r="C39" s="1" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="n">
         <v>92.3</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>86.5</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>79.90000000000001</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>80</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>80</v>
       </c>
     </row>
@@ -1413,20 +1526,23 @@
       <c r="B40" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="n">
+      <c r="C40" s="1" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="n">
         <v>86.3</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>68.7</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>51.7</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>49.9</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>49.5</v>
       </c>
     </row>

--- a/tables/cifar10_resnet_3.xlsx
+++ b/tables/cifar10_resnet_3.xlsx
@@ -600,7 +600,7 @@
         <v>51.5</v>
       </c>
       <c r="E4" t="n">
-        <v>49.7</v>
+        <v>69.69999999999999</v>
       </c>
       <c r="F4" t="n">
         <v>0.5</v>
@@ -609,7 +609,7 @@
         <v>30.2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I4" t="n">
         <v>12.8</v>
@@ -618,7 +618,7 @@
         <v>17.9</v>
       </c>
       <c r="K4" t="n">
-        <v>51</v>
+        <v>4.9</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0.1</v>
       </c>
       <c r="N4" t="n">
-        <v>36.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -642,7 +642,7 @@
         <v>92.5</v>
       </c>
       <c r="E5" t="n">
-        <v>46.6</v>
+        <v>2.3</v>
       </c>
       <c r="F5" t="n">
         <v>15.6</v>
@@ -660,7 +660,7 @@
         <v>17.9</v>
       </c>
       <c r="K5" t="n">
-        <v>37.6</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
         <v>1.9</v>
@@ -669,7 +669,7 @@
         <v>0.1</v>
       </c>
       <c r="N5" t="n">
-        <v>36</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -684,7 +684,7 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>29.1</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="n">
         <v>23.7</v>
@@ -702,7 +702,7 @@
         <v>17.9</v>
       </c>
       <c r="K6" t="n">
-        <v>24.5</v>
+        <v>4.9</v>
       </c>
       <c r="L6" t="n">
         <v>1.8</v>
@@ -711,7 +711,7 @@
         <v>0.1</v>
       </c>
       <c r="N6" t="n">
-        <v>36.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
@@ -726,7 +726,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>8.200000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F7" t="n">
         <v>0.1</v>
@@ -744,7 +744,7 @@
         <v>17.9</v>
       </c>
       <c r="K7" t="n">
-        <v>10.1</v>
+        <v>4.9</v>
       </c>
       <c r="L7" t="n">
         <v>0.1</v>
@@ -753,7 +753,7 @@
         <v>0.1</v>
       </c>
       <c r="N7" t="n">
-        <v>36.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
@@ -768,7 +768,7 @@
         <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>9.9</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
@@ -777,7 +777,7 @@
         <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I8" t="n">
         <v>12.8</v>
@@ -786,7 +786,7 @@
         <v>17.9</v>
       </c>
       <c r="K8" t="n">
-        <v>21.8</v>
+        <v>4.9</v>
       </c>
       <c r="L8" t="n">
         <v>1.6</v>
@@ -795,7 +795,7 @@
         <v>0.1</v>
       </c>
       <c r="N8" t="n">
-        <v>36.2</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="9">
@@ -814,7 +814,7 @@
         <v>99.2</v>
       </c>
       <c r="E9" t="n">
-        <v>99.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="F9" t="n">
         <v>99.09999999999999</v>
@@ -823,7 +823,7 @@
         <v>92.90000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I9" t="n">
         <v>12.8</v>
@@ -832,7 +832,7 @@
         <v>17.9</v>
       </c>
       <c r="K9" t="n">
-        <v>38.8</v>
+        <v>4.9</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0.1</v>
       </c>
       <c r="N9" t="n">
-        <v>36</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
@@ -856,7 +856,7 @@
         <v>98</v>
       </c>
       <c r="E10" t="n">
-        <v>98.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F10" t="n">
         <v>97.5</v>
@@ -865,7 +865,7 @@
         <v>92.90000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>98.3</v>
       </c>
       <c r="I10" t="n">
         <v>12.8</v>
@@ -874,7 +874,7 @@
         <v>17.9</v>
       </c>
       <c r="K10" t="n">
-        <v>50.9</v>
+        <v>4.9</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0.1</v>
       </c>
       <c r="N10" t="n">
-        <v>35.9</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11">
@@ -898,7 +898,7 @@
         <v>97</v>
       </c>
       <c r="E11" t="n">
-        <v>97.8</v>
+        <v>96.7</v>
       </c>
       <c r="F11" t="n">
         <v>95.8</v>
@@ -907,7 +907,7 @@
         <v>92.7</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>96.5</v>
       </c>
       <c r="I11" t="n">
         <v>12.8</v>
@@ -916,7 +916,7 @@
         <v>17.9</v>
       </c>
       <c r="K11" t="n">
-        <v>51</v>
+        <v>4.9</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0.1</v>
       </c>
       <c r="N11" t="n">
-        <v>36.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
@@ -940,7 +940,7 @@
         <v>95.59999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>95.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F12" t="n">
         <v>94</v>
@@ -949,7 +949,7 @@
         <v>92.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>94.8</v>
       </c>
       <c r="I12" t="n">
         <v>12.8</v>
@@ -958,7 +958,7 @@
         <v>17.9</v>
       </c>
       <c r="K12" t="n">
-        <v>36.6</v>
+        <v>4.9</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0.1</v>
       </c>
       <c r="N12" t="n">
-        <v>36.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
@@ -981,7 +981,9 @@
       <c r="D13" t="n">
         <v>93.5</v>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>95.09999999999999</v>
+      </c>
       <c r="F13" t="n">
         <v>91.7</v>
       </c>
@@ -989,7 +991,7 @@
         <v>91.5</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>92.8</v>
       </c>
       <c r="I13" t="n">
         <v>12.8</v>
@@ -997,7 +999,9 @@
       <c r="J13" t="n">
         <v>17.9</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>4.9</v>
+      </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
@@ -1005,7 +1009,7 @@
         <v>0.1</v>
       </c>
       <c r="N13" t="n">
-        <v>35.9</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
@@ -1019,7 +1023,9 @@
       <c r="D14" t="n">
         <v>89.90000000000001</v>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>92.3</v>
+      </c>
       <c r="F14" t="n">
         <v>86.3</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>89.40000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I14" t="n">
         <v>12.8</v>
@@ -1035,7 +1041,9 @@
       <c r="J14" t="n">
         <v>17.9</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>4.9</v>
+      </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
@@ -1043,7 +1051,7 @@
         <v>0.1</v>
       </c>
       <c r="N14" t="n">
-        <v>35.9</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="15">
@@ -1057,7 +1065,9 @@
       <c r="D15" t="n">
         <v>81.59999999999999</v>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>90.09999999999999</v>
+      </c>
       <c r="F15" t="n">
         <v>76.2</v>
       </c>
@@ -1065,7 +1075,7 @@
         <v>84.8</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I15" t="n">
         <v>12.8</v>
@@ -1073,7 +1083,9 @@
       <c r="J15" t="n">
         <v>17.9</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>4.9</v>
+      </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
@@ -1081,7 +1093,7 @@
         <v>0.1</v>
       </c>
       <c r="N15" t="n">
-        <v>35.9</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="16">
@@ -1100,7 +1112,7 @@
         <v>63.6</v>
       </c>
       <c r="E16" t="n">
-        <v>73.3</v>
+        <v>82.5</v>
       </c>
       <c r="F16" t="n">
         <v>46.9</v>
@@ -1109,7 +1121,7 @@
         <v>69.69999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I16" t="n">
         <v>12.8</v>
@@ -1118,7 +1130,7 @@
         <v>17.9</v>
       </c>
       <c r="K16" t="n">
-        <v>51</v>
+        <v>4.9</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1127,7 +1139,7 @@
         <v>0.1</v>
       </c>
       <c r="N16" t="n">
-        <v>36.1</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="17">
@@ -1142,7 +1154,7 @@
         <v>45.6</v>
       </c>
       <c r="E17" t="n">
-        <v>55.40000000000001</v>
+        <v>77.60000000000002</v>
       </c>
       <c r="F17" t="n">
         <v>16.3</v>
@@ -1151,7 +1163,7 @@
         <v>46.6</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I17" t="n">
         <v>12.8</v>
@@ -1160,7 +1172,7 @@
         <v>17.9</v>
       </c>
       <c r="K17" t="n">
-        <v>51</v>
+        <v>4.9</v>
       </c>
       <c r="L17" t="n">
         <v>4.4</v>
@@ -1169,7 +1181,7 @@
         <v>0.1</v>
       </c>
       <c r="N17" t="n">
-        <v>35.9</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="18">
@@ -1184,7 +1196,7 @@
         <v>46.7</v>
       </c>
       <c r="E18" t="n">
-        <v>49.4</v>
+        <v>72.2</v>
       </c>
       <c r="F18" t="n">
         <v>10.6</v>
@@ -1193,7 +1205,7 @@
         <v>32.9</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I18" t="n">
         <v>12.8</v>
@@ -1202,7 +1214,7 @@
         <v>17.9</v>
       </c>
       <c r="K18" t="n">
-        <v>47.5</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
         <v>3.7</v>
@@ -1211,7 +1223,7 @@
         <v>0.1</v>
       </c>
       <c r="N18" t="n">
-        <v>36</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="19">
@@ -1226,7 +1238,7 @@
         <v>48.2</v>
       </c>
       <c r="E19" t="n">
-        <v>51.7</v>
+        <v>60.9</v>
       </c>
       <c r="F19" t="n">
         <v>3.4</v>
@@ -1235,7 +1247,7 @@
         <v>23.5</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I19" t="n">
         <v>12.8</v>
@@ -1244,7 +1256,7 @@
         <v>17.9</v>
       </c>
       <c r="K19" t="n">
-        <v>47</v>
+        <v>4.9</v>
       </c>
       <c r="L19" t="n">
         <v>1.5</v>
@@ -1253,7 +1265,7 @@
         <v>0.1</v>
       </c>
       <c r="N19" t="n">
-        <v>35.8</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="20">
@@ -1267,7 +1279,9 @@
       <c r="D20" t="n">
         <v>48.8</v>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>44.9</v>
+      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
@@ -1275,7 +1289,7 @@
         <v>17.8</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I20" t="n">
         <v>12.8</v>
@@ -1283,7 +1297,9 @@
       <c r="J20" t="n">
         <v>17.9</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>4.9</v>
+      </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
@@ -1291,7 +1307,7 @@
         <v>0.1</v>
       </c>
       <c r="N20" t="n">
-        <v>36.3</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="21">
@@ -1305,7 +1321,9 @@
       <c r="D21" t="n">
         <v>55.2</v>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>27.8</v>
+      </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
@@ -1313,7 +1331,7 @@
         <v>12.2</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I21" t="n">
         <v>12.8</v>
@@ -1321,7 +1339,9 @@
       <c r="J21" t="n">
         <v>17.9</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>4.9</v>
+      </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
@@ -1329,7 +1349,7 @@
         <v>0.1</v>
       </c>
       <c r="N21" t="n">
-        <v>36.2</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="22">
@@ -1343,7 +1363,9 @@
       <c r="D22" t="n">
         <v>61.1</v>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
@@ -1351,7 +1373,7 @@
         <v>10.2</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I22" t="n">
         <v>12.8</v>
@@ -1359,7 +1381,9 @@
       <c r="J22" t="n">
         <v>17.9</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>4.9</v>
+      </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
@@ -1367,7 +1391,7 @@
         <v>0.1</v>
       </c>
       <c r="N22" t="n">
-        <v>35.7</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="23">
@@ -1383,10 +1407,10 @@
         <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E23" t="n">
-        <v>30.3</v>
+        <v>1.8</v>
       </c>
       <c r="F23" t="n">
         <v>71.8</v>
@@ -1395,16 +1419,16 @@
         <v>82.09999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I23" t="n">
         <v>12.8</v>
       </c>
       <c r="J23" t="n">
-        <v>17.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>36.7</v>
+        <v>4.9</v>
       </c>
       <c r="L23" t="n">
         <v>3.8</v>
@@ -1413,7 +1437,7 @@
         <v>0.1</v>
       </c>
       <c r="N23" t="n">
-        <v>36</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="24">
@@ -1428,7 +1452,7 @@
         <v>35.2</v>
       </c>
       <c r="E24" t="n">
-        <v>32.9</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="F24" t="n">
         <v>20.7</v>
@@ -1437,7 +1461,7 @@
         <v>72.3</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I24" t="n">
         <v>12.8</v>
@@ -1446,7 +1470,7 @@
         <v>17.9</v>
       </c>
       <c r="K24" t="n">
-        <v>34.2</v>
+        <v>4.9</v>
       </c>
       <c r="L24" t="n">
         <v>5.2</v>
@@ -1455,7 +1479,7 @@
         <v>0.1</v>
       </c>
       <c r="N24" t="n">
-        <v>35.9</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="25">
@@ -1470,7 +1494,7 @@
         <v>36.6</v>
       </c>
       <c r="E25" t="n">
-        <v>51.2</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1479,7 +1503,7 @@
         <v>51.1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I25" t="n">
         <v>12.8</v>
@@ -1488,7 +1512,7 @@
         <v>17.9</v>
       </c>
       <c r="K25" t="n">
-        <v>50.9</v>
+        <v>4.9</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1497,7 +1521,7 @@
         <v>0.1</v>
       </c>
       <c r="N25" t="n">
-        <v>36.1</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="26">
@@ -1516,7 +1540,7 @@
         <v>38.1</v>
       </c>
       <c r="E26" t="n">
-        <v>49.9</v>
+        <v>42.3</v>
       </c>
       <c r="F26" t="n">
         <v>17.2</v>
@@ -1525,7 +1549,7 @@
         <v>35.6</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I26" t="n">
         <v>12.8</v>
@@ -1534,7 +1558,7 @@
         <v>17.9</v>
       </c>
       <c r="K26" t="n">
-        <v>50.9</v>
+        <v>4.9</v>
       </c>
       <c r="L26" t="n">
         <v>1.6</v>
@@ -1543,7 +1567,7 @@
         <v>0.1</v>
       </c>
       <c r="N26" t="n">
-        <v>35.9</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="27">
@@ -1558,7 +1582,7 @@
         <v>42.2</v>
       </c>
       <c r="E27" t="n">
-        <v>50.1</v>
+        <v>44</v>
       </c>
       <c r="F27" t="n">
         <v>0.3</v>
@@ -1567,7 +1591,7 @@
         <v>14.7</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I27" t="n">
         <v>12.8</v>
@@ -1576,7 +1600,7 @@
         <v>17.9</v>
       </c>
       <c r="K27" t="n">
-        <v>50.9</v>
+        <v>4.9</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1585,7 +1609,7 @@
         <v>0.1</v>
       </c>
       <c r="N27" t="n">
-        <v>35.9</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="28">
@@ -1604,7 +1628,7 @@
         <v>94.7</v>
       </c>
       <c r="E28" t="n">
-        <v>56.99999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="F28" t="n">
         <v>64.7</v>
@@ -1613,7 +1637,7 @@
         <v>88</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I28" t="n">
         <v>12.8</v>
@@ -1622,7 +1646,7 @@
         <v>17.9</v>
       </c>
       <c r="K28" t="n">
-        <v>53.90000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="L28" t="n">
         <v>1.2</v>
@@ -1631,7 +1655,7 @@
         <v>0.1</v>
       </c>
       <c r="N28" t="n">
-        <v>35.8</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="29">
@@ -1650,7 +1674,7 @@
         <v>79.3</v>
       </c>
       <c r="E29" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F29" t="n">
         <v>60.2</v>
@@ -1659,7 +1683,7 @@
         <v>63.2</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I29" t="n">
         <v>12.8</v>
@@ -1668,7 +1692,7 @@
         <v>17.9</v>
       </c>
       <c r="K29" t="n">
-        <v>36</v>
+        <v>4.9</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -1677,7 +1701,7 @@
         <v>0.1</v>
       </c>
       <c r="N29" t="n">
-        <v>36.1</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="30">
@@ -1692,7 +1716,7 @@
         <v>100</v>
       </c>
       <c r="E30" t="n">
-        <v>55.7</v>
+        <v>20.4</v>
       </c>
       <c r="F30" t="n">
         <v>35.09999999999999</v>
@@ -1701,7 +1725,7 @@
         <v>96.2</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I30" t="n">
         <v>12.8</v>
@@ -1710,7 +1734,7 @@
         <v>17.9</v>
       </c>
       <c r="K30" t="n">
-        <v>51</v>
+        <v>4.9</v>
       </c>
       <c r="L30" t="n">
         <v>1.9</v>
@@ -1719,7 +1743,7 @@
         <v>0.1</v>
       </c>
       <c r="N30" t="n">
-        <v>35.8</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="31">
@@ -1734,7 +1758,7 @@
         <v>100</v>
       </c>
       <c r="E31" t="n">
-        <v>45.5</v>
+        <v>11.2</v>
       </c>
       <c r="F31" t="n">
         <v>63.9</v>
@@ -1743,7 +1767,7 @@
         <v>100</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I31" t="n">
         <v>12.8</v>
@@ -1752,7 +1776,7 @@
         <v>17.9</v>
       </c>
       <c r="K31" t="n">
-        <v>45.4</v>
+        <v>4.9</v>
       </c>
       <c r="L31" t="n">
         <v>1.6</v>
@@ -1761,7 +1785,7 @@
         <v>0.1</v>
       </c>
       <c r="N31" t="n">
-        <v>35.6</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="32">
@@ -1776,7 +1800,7 @@
         <v>100</v>
       </c>
       <c r="E32" t="n">
-        <v>19.3</v>
+        <v>12.4</v>
       </c>
       <c r="F32" t="n">
         <v>74.5</v>
@@ -1785,7 +1809,7 @@
         <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I32" t="n">
         <v>12.8</v>
@@ -1794,7 +1818,7 @@
         <v>17.9</v>
       </c>
       <c r="K32" t="n">
-        <v>19.7</v>
+        <v>4.9</v>
       </c>
       <c r="L32" t="n">
         <v>1.5</v>
@@ -1803,7 +1827,7 @@
         <v>0.1</v>
       </c>
       <c r="N32" t="n">
-        <v>35.09999999999999</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="33">
@@ -1818,7 +1842,7 @@
         <v>100</v>
       </c>
       <c r="E33" t="n">
-        <v>19.3</v>
+        <v>12.4</v>
       </c>
       <c r="F33" t="n">
         <v>63.8</v>
@@ -1827,7 +1851,7 @@
         <v>100</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I33" t="n">
         <v>12.8</v>
@@ -1836,7 +1860,7 @@
         <v>17.9</v>
       </c>
       <c r="K33" t="n">
-        <v>19.7</v>
+        <v>4.9</v>
       </c>
       <c r="L33" t="n">
         <v>1.3</v>
@@ -1845,7 +1869,7 @@
         <v>0.1</v>
       </c>
       <c r="N33" t="n">
-        <v>36.4</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="34">
@@ -1862,7 +1886,7 @@
         <v>98.8</v>
       </c>
       <c r="E34" t="n">
-        <v>88.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="F34" t="n">
         <v>78.10000000000002</v>
@@ -1871,14 +1895,14 @@
         <v>79.7</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>17.9</v>
       </c>
       <c r="K34" t="n">
-        <v>47.1</v>
+        <v>4.9</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -1887,7 +1911,7 @@
         <v>0.1</v>
       </c>
       <c r="N34" t="n">
-        <v>35.7</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="35">
@@ -1900,7 +1924,7 @@
         <v>94.8</v>
       </c>
       <c r="E35" t="n">
-        <v>96.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F35" t="n">
         <v>93.3</v>
@@ -1909,14 +1933,14 @@
         <v>88.5</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>17.9</v>
       </c>
       <c r="K35" t="n">
-        <v>51</v>
+        <v>4.9</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -1925,7 +1949,7 @@
         <v>0.1</v>
       </c>
       <c r="N35" t="n">
-        <v>35.5</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="36">
@@ -1938,7 +1962,7 @@
         <v>89</v>
       </c>
       <c r="E36" t="n">
-        <v>78.10000000000002</v>
+        <v>80.60000000000002</v>
       </c>
       <c r="F36" t="n">
         <v>75.3</v>
@@ -1947,14 +1971,14 @@
         <v>74.5</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>17.9</v>
       </c>
       <c r="K36" t="n">
-        <v>18.8</v>
+        <v>4.9</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -1963,7 +1987,7 @@
         <v>0.1</v>
       </c>
       <c r="N36" t="n">
-        <v>36.2</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="37">
@@ -1980,7 +2004,7 @@
         <v>98.7</v>
       </c>
       <c r="E37" t="n">
-        <v>99.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="F37" t="n">
         <v>98.5</v>
@@ -1989,14 +2013,14 @@
         <v>92.8</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>17.9</v>
       </c>
       <c r="K37" t="n">
-        <v>64.60000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2005,7 +2029,7 @@
         <v>0.1</v>
       </c>
       <c r="N37" t="n">
-        <v>36.1</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="38">
@@ -2018,7 +2042,7 @@
         <v>97.2</v>
       </c>
       <c r="E38" t="n">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="F38" t="n">
         <v>93.90000000000001</v>
@@ -2027,14 +2051,14 @@
         <v>88.8</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>17.9</v>
       </c>
       <c r="K38" t="n">
-        <v>99.40000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2043,7 +2067,7 @@
         <v>0.1</v>
       </c>
       <c r="N38" t="n">
-        <v>36.1</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="39">
@@ -2056,7 +2080,7 @@
         <v>92.3</v>
       </c>
       <c r="E39" t="n">
-        <v>86.5</v>
+        <v>84.8</v>
       </c>
       <c r="F39" t="n">
         <v>79.90000000000001</v>
@@ -2065,14 +2089,14 @@
         <v>68.7</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>17.9</v>
       </c>
       <c r="K39" t="n">
-        <v>35.3</v>
+        <v>4.9</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2081,7 +2105,7 @@
         <v>0.1</v>
       </c>
       <c r="N39" t="n">
-        <v>35.7</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="40">
@@ -2094,7 +2118,7 @@
         <v>86.3</v>
       </c>
       <c r="E40" t="n">
-        <v>68.7</v>
+        <v>63.9</v>
       </c>
       <c r="F40" t="n">
         <v>51.7</v>
@@ -2103,14 +2127,14 @@
         <v>37.1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>17.9</v>
       </c>
       <c r="K40" t="n">
-        <v>39.1</v>
+        <v>4.9</v>
       </c>
       <c r="L40" t="n">
         <v>0.1</v>
@@ -2119,7 +2143,7 @@
         <v>0.1</v>
       </c>
       <c r="N40" t="n">
-        <v>35.8</v>
+        <v>89.5</v>
       </c>
     </row>
   </sheetData>

--- a/tables/cifar10_resnet_3.xlsx
+++ b/tables/cifar10_resnet_3.xlsx
@@ -594,10 +594,10 @@
         <v>0.031</v>
       </c>
       <c r="C4" t="n">
-        <v>32.1</v>
+        <v>12.7</v>
       </c>
       <c r="D4" t="n">
-        <v>51.5</v>
+        <v>28.7</v>
       </c>
       <c r="E4" t="n">
         <v>69.69999999999999</v>
@@ -612,10 +612,10 @@
         <v>0.5</v>
       </c>
       <c r="I4" t="n">
-        <v>12.8</v>
+        <v>4.3</v>
       </c>
       <c r="J4" t="n">
-        <v>17.9</v>
+        <v>7.8</v>
       </c>
       <c r="K4" t="n">
         <v>4.9</v>
@@ -636,10 +636,10 @@
         <v>0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>91.2</v>
+        <v>62.1</v>
       </c>
       <c r="D5" t="n">
-        <v>92.5</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>2.3</v>
@@ -654,10 +654,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>12.8</v>
+        <v>4.4</v>
       </c>
       <c r="J5" t="n">
-        <v>17.9</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
         <v>4.9</v>
@@ -777,7 +777,7 @@
         <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>12.8</v>
@@ -795,7 +795,7 @@
         <v>0.1</v>
       </c>
       <c r="N8" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
@@ -949,7 +949,7 @@
         <v>92.5</v>
       </c>
       <c r="H12" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="I12" t="n">
         <v>12.8</v>
@@ -991,7 +991,7 @@
         <v>91.5</v>
       </c>
       <c r="H13" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="I13" t="n">
         <v>12.8</v>
@@ -1033,7 +1033,7 @@
         <v>89.40000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>10.5</v>
+        <v>89</v>
       </c>
       <c r="I14" t="n">
         <v>12.8</v>
@@ -1051,7 +1051,7 @@
         <v>0.1</v>
       </c>
       <c r="N14" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15">
@@ -1075,7 +1075,7 @@
         <v>84.8</v>
       </c>
       <c r="H15" t="n">
-        <v>10.5</v>
+        <v>79.7</v>
       </c>
       <c r="I15" t="n">
         <v>12.8</v>
@@ -1093,7 +1093,7 @@
         <v>0.1</v>
       </c>
       <c r="N15" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16">
@@ -1121,7 +1121,7 @@
         <v>69.69999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>10.5</v>
+        <v>52.1</v>
       </c>
       <c r="I16" t="n">
         <v>12.8</v>
@@ -1139,7 +1139,7 @@
         <v>0.1</v>
       </c>
       <c r="N16" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17">
@@ -1163,7 +1163,7 @@
         <v>46.6</v>
       </c>
       <c r="H17" t="n">
-        <v>10.5</v>
+        <v>12.7</v>
       </c>
       <c r="I17" t="n">
         <v>12.8</v>
@@ -1181,7 +1181,7 @@
         <v>0.1</v>
       </c>
       <c r="N17" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18">
@@ -1205,7 +1205,7 @@
         <v>32.9</v>
       </c>
       <c r="H18" t="n">
-        <v>10.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="I18" t="n">
         <v>12.8</v>
@@ -1223,7 +1223,7 @@
         <v>0.1</v>
       </c>
       <c r="N18" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19">
@@ -1247,7 +1247,7 @@
         <v>23.5</v>
       </c>
       <c r="H19" t="n">
-        <v>10.5</v>
+        <v>0.2</v>
       </c>
       <c r="I19" t="n">
         <v>12.8</v>
@@ -1265,7 +1265,7 @@
         <v>0.1</v>
       </c>
       <c r="N19" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20">
@@ -1289,7 +1289,7 @@
         <v>17.8</v>
       </c>
       <c r="H20" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>12.8</v>
@@ -1307,7 +1307,7 @@
         <v>0.1</v>
       </c>
       <c r="N20" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21">
@@ -1331,7 +1331,7 @@
         <v>12.2</v>
       </c>
       <c r="H21" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>12.8</v>
@@ -1349,7 +1349,7 @@
         <v>0.1</v>
       </c>
       <c r="N21" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22">
@@ -1373,7 +1373,7 @@
         <v>10.2</v>
       </c>
       <c r="H22" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>12.8</v>
@@ -1391,7 +1391,7 @@
         <v>0.1</v>
       </c>
       <c r="N22" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23">
@@ -1407,7 +1407,7 @@
         <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>26.3</v>
       </c>
       <c r="E23" t="n">
         <v>1.8</v>
@@ -1419,13 +1419,13 @@
         <v>82.09999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>10.5</v>
+        <v>94.8</v>
       </c>
       <c r="I23" t="n">
         <v>12.8</v>
       </c>
       <c r="J23" t="n">
-        <v>99.90000000000001</v>
+        <v>13.9</v>
       </c>
       <c r="K23" t="n">
         <v>4.9</v>
@@ -1437,7 +1437,7 @@
         <v>0.1</v>
       </c>
       <c r="N23" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="24">
@@ -1461,7 +1461,7 @@
         <v>72.3</v>
       </c>
       <c r="H24" t="n">
-        <v>10.5</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
         <v>12.8</v>
@@ -1479,7 +1479,7 @@
         <v>0.1</v>
       </c>
       <c r="N24" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="25">
@@ -1503,7 +1503,7 @@
         <v>51.1</v>
       </c>
       <c r="H25" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>12.8</v>
@@ -1521,7 +1521,7 @@
         <v>0.1</v>
       </c>
       <c r="N25" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26">
@@ -1549,7 +1549,7 @@
         <v>35.6</v>
       </c>
       <c r="H26" t="n">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
         <v>12.8</v>
@@ -1567,7 +1567,7 @@
         <v>0.1</v>
       </c>
       <c r="N26" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="27">
@@ -1591,7 +1591,7 @@
         <v>14.7</v>
       </c>
       <c r="H27" t="n">
-        <v>10.5</v>
+        <v>0.3</v>
       </c>
       <c r="I27" t="n">
         <v>12.8</v>
@@ -1609,7 +1609,7 @@
         <v>0.1</v>
       </c>
       <c r="N27" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28">
@@ -1637,7 +1637,7 @@
         <v>88</v>
       </c>
       <c r="H28" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="I28" t="n">
         <v>12.8</v>
@@ -1655,7 +1655,7 @@
         <v>0.1</v>
       </c>
       <c r="N28" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29">
@@ -1683,7 +1683,7 @@
         <v>63.2</v>
       </c>
       <c r="H29" t="n">
-        <v>10.5</v>
+        <v>60.4</v>
       </c>
       <c r="I29" t="n">
         <v>12.8</v>
@@ -1701,7 +1701,7 @@
         <v>0.1</v>
       </c>
       <c r="N29" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="30">
@@ -1725,7 +1725,7 @@
         <v>96.2</v>
       </c>
       <c r="H30" t="n">
-        <v>10.5</v>
+        <v>11.4</v>
       </c>
       <c r="I30" t="n">
         <v>12.8</v>
@@ -1743,7 +1743,7 @@
         <v>0.1</v>
       </c>
       <c r="N30" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="31">
@@ -1767,7 +1767,7 @@
         <v>100</v>
       </c>
       <c r="H31" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I31" t="n">
         <v>12.8</v>
@@ -1785,7 +1785,7 @@
         <v>0.1</v>
       </c>
       <c r="N31" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32">
@@ -1809,7 +1809,7 @@
         <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>10.5</v>
+        <v>12.3</v>
       </c>
       <c r="I32" t="n">
         <v>12.8</v>
@@ -1827,7 +1827,7 @@
         <v>0.1</v>
       </c>
       <c r="N32" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="33">
@@ -1851,7 +1851,7 @@
         <v>100</v>
       </c>
       <c r="H33" t="n">
-        <v>10.5</v>
+        <v>12.3</v>
       </c>
       <c r="I33" t="n">
         <v>12.8</v>
@@ -1869,7 +1869,7 @@
         <v>0.1</v>
       </c>
       <c r="N33" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="34">
@@ -1895,7 +1895,7 @@
         <v>79.7</v>
       </c>
       <c r="H34" t="n">
-        <v>10.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
@@ -1911,7 +1911,7 @@
         <v>0.1</v>
       </c>
       <c r="N34" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="35">
@@ -1933,7 +1933,7 @@
         <v>88.5</v>
       </c>
       <c r="H35" t="n">
-        <v>10.5</v>
+        <v>93</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
@@ -1949,7 +1949,7 @@
         <v>0.1</v>
       </c>
       <c r="N35" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="36">
@@ -1971,7 +1971,7 @@
         <v>74.5</v>
       </c>
       <c r="H36" t="n">
-        <v>10.5</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
@@ -1987,7 +1987,7 @@
         <v>0.1</v>
       </c>
       <c r="N36" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="37">
@@ -2013,7 +2013,7 @@
         <v>92.8</v>
       </c>
       <c r="H37" t="n">
-        <v>10.5</v>
+        <v>98.3</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
@@ -2029,7 +2029,7 @@
         <v>0.1</v>
       </c>
       <c r="N37" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="38">
@@ -2051,7 +2051,7 @@
         <v>88.8</v>
       </c>
       <c r="H38" t="n">
-        <v>10.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
@@ -2067,7 +2067,7 @@
         <v>0.1</v>
       </c>
       <c r="N38" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="39">
@@ -2089,7 +2089,7 @@
         <v>68.7</v>
       </c>
       <c r="H39" t="n">
-        <v>10.5</v>
+        <v>79.60000000000002</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
@@ -2105,7 +2105,7 @@
         <v>0.1</v>
       </c>
       <c r="N39" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="40">
@@ -2127,7 +2127,7 @@
         <v>37.1</v>
       </c>
       <c r="H40" t="n">
-        <v>10.5</v>
+        <v>49.8</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
@@ -2143,7 +2143,7 @@
         <v>0.1</v>
       </c>
       <c r="N40" t="n">
-        <v>89.5</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
